--- a/Work/MS BRIBox/PM/2/KC Payakumbuh/FORM PM Unit Halaban.xlsx
+++ b/Work/MS BRIBox/PM/2/KC Payakumbuh/FORM PM Unit Halaban.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jamil\Work\MS BRIBox\PM\2\KC Payakumbuh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B45FAC-A8B7-4ECC-A72C-71DDD70A50DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C26193-654B-4C46-A27C-4491E7133306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Form PM (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Form PM'!$A$1:$V$81</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Form PM'!$A$1:$V$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1512,8 +1512,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P61" sqref="P61"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1533,7 +1533,7 @@
     <col min="14" max="14" width="6.85546875" customWidth="1"/>
     <col min="15" max="15" width="7.140625" customWidth="1"/>
     <col min="16" max="16" width="7" customWidth="1"/>
-    <col min="17" max="17" width="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" customWidth="1"/>
     <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.85546875" customWidth="1"/>
     <col min="20" max="20" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -7543,7 +7543,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
